--- a/REGULAR/GSO/PERIDO , EDWIN.xlsx
+++ b/REGULAR/GSO/PERIDO , EDWIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="569">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1845,6 +1845,21 @@
   </si>
   <si>
     <t>3/8-10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>5/11,12,25,2022</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K833" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K839" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2895,11 +2910,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K833"/>
+  <dimension ref="A2:K839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D628" sqref="D628"/>
+      <pane ySplit="9" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3081,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>153.96199999999993</v>
+        <v>147.6699999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16627,36 +16642,32 @@
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C620" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D620" s="39"/>
+        <v>404</v>
+      </c>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H620" s="39">
-        <v>1</v>
-      </c>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20" t="s">
-        <v>551</v>
-      </c>
+      <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B621" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B621" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C621" s="13">
         <v>1.25</v>
       </c>
@@ -16667,68 +16678,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H621" s="39"/>
+      <c r="H621" s="39">
+        <v>1</v>
+      </c>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="20"/>
+      <c r="K621" s="20" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C622" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D622" s="39"/>
+        <v>567</v>
+      </c>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39">
+        <v>1</v>
+      </c>
       <c r="E622" s="9"/>
       <c r="F622" s="20"/>
-      <c r="G622" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H622" s="39">
-        <v>2</v>
-      </c>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
-      <c r="K622" s="20" t="s">
-        <v>552</v>
+      <c r="K622" s="49">
+        <v>44669</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="C623" s="13"/>
-      <c r="D623" s="39"/>
+      <c r="D623" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
       <c r="G623" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H623" s="39">
-        <v>2</v>
-      </c>
+      <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="20" t="s">
-        <v>553</v>
-      </c>
+      <c r="K623" s="49"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B624" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B624" s="20" t="s">
+        <v>566</v>
+      </c>
       <c r="C624" s="13">
         <v>1.25</v>
       </c>
-      <c r="D624" s="39"/>
+      <c r="D624" s="39">
+        <v>5</v>
+      </c>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
       <c r="G624" s="13">
@@ -16739,14 +16752,16 @@
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="20" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B625" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B625" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C625" s="13">
         <v>1.25</v>
       </c>
@@ -16757,75 +16772,69 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H625" s="39"/>
+      <c r="H625" s="39">
+        <v>2</v>
+      </c>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="20"/>
+      <c r="K625" s="20" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C626" s="13">
-        <v>1.25</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C626" s="13"/>
       <c r="D626" s="39"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H626" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="49">
-        <v>44811</v>
+      <c r="K626" s="20" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C627" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D627" s="39"/>
+        <v>565</v>
+      </c>
+      <c r="C627" s="13"/>
+      <c r="D627" s="39">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H627" s="39">
-        <v>1</v>
-      </c>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="49">
-        <v>44838</v>
-      </c>
+      <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>44866</v>
+        <v>44743</v>
       </c>
       <c r="B628" s="20" t="s">
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="C628" s="13">
         <v>1.25</v>
       </c>
       <c r="D628" s="39">
-        <v>5.000000000000001E-2</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
@@ -16840,121 +16849,133 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="B629" s="20" t="s">
-        <v>53</v>
+        <v>431</v>
       </c>
       <c r="C629" s="13">
         <v>1.25</v>
       </c>
-      <c r="D629" s="39"/>
+      <c r="D629" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
       <c r="G629" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H629" s="39">
-        <v>1</v>
-      </c>
+      <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="49">
-        <v>44896</v>
-      </c>
+      <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="41"/>
-      <c r="B630" s="15" t="s">
+      <c r="A630" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B630" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C630" s="42"/>
-      <c r="D630" s="43"/>
-      <c r="E630" s="50"/>
-      <c r="F630" s="15"/>
-      <c r="G630" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H630" s="43">
+      <c r="C630" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D630" s="39"/>
+      <c r="E630" s="9"/>
+      <c r="F630" s="20"/>
+      <c r="G630" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H630" s="39">
         <v>1</v>
       </c>
-      <c r="I630" s="50"/>
-      <c r="J630" s="12"/>
-      <c r="K630" s="51">
-        <v>44914</v>
+      <c r="I630" s="9"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="49">
+        <v>44811</v>
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="41"/>
-      <c r="B631" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C631" s="42"/>
-      <c r="D631" s="43"/>
-      <c r="E631" s="50"/>
-      <c r="F631" s="15"/>
-      <c r="G631" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H631" s="43">
-        <v>2</v>
-      </c>
-      <c r="I631" s="50"/>
-      <c r="J631" s="12"/>
-      <c r="K631" s="51" t="s">
-        <v>559</v>
-      </c>
+      <c r="A631" s="40"/>
+      <c r="B631" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="E631" s="9"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39"/>
+      <c r="I631" s="9"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="49"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40"/>
+      <c r="A632" s="40">
+        <v>44835</v>
+      </c>
       <c r="B632" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C632" s="13"/>
-      <c r="D632" s="39">
-        <v>1.9000000000000003E-2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="39"/>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="49"/>
+      <c r="K632" s="49">
+        <v>44838</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="B633" s="15"/>
-      <c r="C633" s="42"/>
-      <c r="D633" s="43"/>
-      <c r="E633" s="50"/>
-      <c r="F633" s="15"/>
-      <c r="G633" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="43"/>
-      <c r="I633" s="50"/>
-      <c r="J633" s="12"/>
-      <c r="K633" s="15"/>
+      <c r="A633" s="40"/>
+      <c r="B633" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C633" s="13"/>
+      <c r="D633" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E633" s="9"/>
+      <c r="F633" s="20"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="39"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="49"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B634" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B634" s="20" t="s">
+        <v>401</v>
+      </c>
       <c r="C634" s="13">
         <v>1.25</v>
       </c>
-      <c r="D634" s="39"/>
+      <c r="D634" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="13">
@@ -16968,125 +16989,117 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="B635" s="20" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C635" s="13">
         <v>1.25</v>
       </c>
-      <c r="D635" s="39">
-        <v>3</v>
-      </c>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
       <c r="G635" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H635" s="39"/>
+      <c r="H635" s="39">
+        <v>1</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20" t="s">
-        <v>560</v>
+      <c r="K635" s="49">
+        <v>44896</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B636" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C636" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D636" s="39">
+      <c r="A636" s="41"/>
+      <c r="B636" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C636" s="42"/>
+      <c r="D636" s="43"/>
+      <c r="E636" s="50"/>
+      <c r="F636" s="15"/>
+      <c r="G636" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="43">
+        <v>1</v>
+      </c>
+      <c r="I636" s="50"/>
+      <c r="J636" s="12"/>
+      <c r="K636" s="51">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="41"/>
+      <c r="B637" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C637" s="42"/>
+      <c r="D637" s="43"/>
+      <c r="E637" s="50"/>
+      <c r="F637" s="15"/>
+      <c r="G637" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="43">
         <v>2</v>
       </c>
-      <c r="E636" s="9"/>
-      <c r="F636" s="20"/>
-      <c r="G636" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H636" s="39"/>
-      <c r="I636" s="9"/>
-      <c r="J636" s="11"/>
-      <c r="K636" s="20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40"/>
-      <c r="B637" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="C637" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D637" s="43"/>
-      <c r="E637" s="9"/>
-      <c r="F637" s="15"/>
-      <c r="G637" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H637" s="43"/>
-      <c r="I637" s="9"/>
+      <c r="I637" s="50"/>
       <c r="J637" s="12"/>
-      <c r="K637" s="15" t="s">
-        <v>563</v>
+      <c r="K637" s="51" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B638" s="15"/>
-      <c r="C638" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D638" s="43"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E638" s="9"/>
-      <c r="F638" s="15"/>
-      <c r="G638" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H638" s="43"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="39"/>
       <c r="I638" s="9"/>
-      <c r="J638" s="12"/>
-      <c r="K638" s="15"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="49"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B639" s="20"/>
-      <c r="C639" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D639" s="39"/>
-      <c r="E639" s="9"/>
-      <c r="F639" s="20"/>
-      <c r="G639" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H639" s="39"/>
-      <c r="I639" s="9"/>
-      <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="A639" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="B639" s="15"/>
+      <c r="C639" s="42"/>
+      <c r="D639" s="43"/>
+      <c r="E639" s="50"/>
+      <c r="F639" s="15"/>
+      <c r="G639" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="43"/>
+      <c r="I639" s="50"/>
+      <c r="J639" s="12"/>
+      <c r="K639" s="15"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B640" s="20" t="s">
-        <v>554</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B640" s="20"/>
       <c r="C640" s="13">
         <v>1.25</v>
       </c>
@@ -17100,100 +17113,116 @@
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="49">
-        <v>45093</v>
-      </c>
+      <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C641" s="13"/>
-      <c r="D641" s="39"/>
+        <v>118</v>
+      </c>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D641" s="39">
+        <v>3</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H641" s="39">
-        <v>1</v>
-      </c>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="49">
-        <v>45107</v>
+      <c r="K641" s="20" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B642" s="20"/>
-      <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
+        <v>44986</v>
+      </c>
+      <c r="B642" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C642" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D642" s="39">
+        <v>2</v>
+      </c>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G642" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="20" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B643" s="20"/>
-      <c r="C643" s="13"/>
-      <c r="D643" s="39"/>
+      <c r="A643" s="40"/>
+      <c r="B643" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D643" s="43"/>
       <c r="E643" s="9"/>
-      <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H643" s="39"/>
+      <c r="F643" s="15"/>
+      <c r="G643" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H643" s="43"/>
       <c r="I643" s="9"/>
-      <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
+      <c r="J643" s="12"/>
+      <c r="K643" s="15" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B644" s="20"/>
-      <c r="C644" s="13"/>
-      <c r="D644" s="39"/>
+        <v>45017</v>
+      </c>
+      <c r="B644" s="15"/>
+      <c r="C644" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D644" s="43"/>
       <c r="E644" s="9"/>
-      <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H644" s="39"/>
+      <c r="F644" s="15"/>
+      <c r="G644" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H644" s="43"/>
       <c r="I644" s="9"/>
-      <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
+      <c r="J644" s="12"/>
+      <c r="K644" s="15"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45231</v>
+        <v>45047</v>
       </c>
       <c r="B645" s="20"/>
-      <c r="C645" s="13"/>
+      <c r="C645" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D645" s="39"/>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
@@ -17202,27 +17231,35 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B646" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C646" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="49">
+        <v>45093</v>
+      </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B647" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B647" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C647" s="13"/>
       <c r="D647" s="39"/>
       <c r="E647" s="9"/>
@@ -17231,14 +17268,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H647" s="39"/>
+      <c r="H647" s="39">
+        <v>1</v>
+      </c>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="49">
+        <v>45107</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45323</v>
+        <v>45139</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17256,7 +17297,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45352</v>
+        <v>45170</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17274,7 +17315,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45383</v>
+        <v>45200</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17292,7 +17333,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45413</v>
+        <v>45231</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17310,7 +17351,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45444</v>
+        <v>45261</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17328,7 +17369,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17346,7 +17387,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17364,7 +17405,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17382,7 +17423,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17400,7 +17441,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17418,7 +17459,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17436,7 +17477,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17454,7 +17495,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17472,7 +17513,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17490,7 +17531,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17508,7 +17549,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17526,7 +17567,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17544,7 +17585,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17562,7 +17603,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17580,7 +17621,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17598,7 +17639,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17616,7 +17657,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17634,7 +17675,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17652,7 +17693,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17670,7 +17711,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17688,7 +17729,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17706,7 +17747,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17724,7 +17765,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46143</v>
+        <v>45962</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17742,7 +17783,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46174</v>
+        <v>45992</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17760,7 +17801,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46204</v>
+        <v>46023</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17778,7 +17819,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46235</v>
+        <v>46054</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17796,7 +17837,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46266</v>
+        <v>46082</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17814,7 +17855,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46296</v>
+        <v>46113</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17832,7 +17873,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46327</v>
+        <v>46143</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17850,7 +17891,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46357</v>
+        <v>46174</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17868,7 +17909,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46388</v>
+        <v>46204</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17886,7 +17927,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46419</v>
+        <v>46235</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17904,7 +17945,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46447</v>
+        <v>46266</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17922,7 +17963,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46478</v>
+        <v>46296</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17940,7 +17981,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46508</v>
+        <v>46327</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17958,7 +17999,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46539</v>
+        <v>46357</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17976,7 +18017,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46569</v>
+        <v>46388</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17994,7 +18035,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46600</v>
+        <v>46419</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18012,7 +18053,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46631</v>
+        <v>46447</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18030,7 +18071,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46661</v>
+        <v>46478</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18048,7 +18089,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46692</v>
+        <v>46508</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18066,7 +18107,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46722</v>
+        <v>46539</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18084,7 +18125,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46753</v>
+        <v>46569</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18102,7 +18143,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46784</v>
+        <v>46600</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18120,7 +18161,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46813</v>
+        <v>46631</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18138,7 +18179,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46844</v>
+        <v>46661</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18156,7 +18197,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46874</v>
+        <v>46692</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18174,7 +18215,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46905</v>
+        <v>46722</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18192,7 +18233,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46935</v>
+        <v>46753</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18210,7 +18251,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46966</v>
+        <v>46784</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18228,7 +18269,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46997</v>
+        <v>46813</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18246,7 +18287,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>47027</v>
+        <v>46844</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18264,7 +18305,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>47058</v>
+        <v>46874</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18282,7 +18323,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>47088</v>
+        <v>46905</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18300,7 +18341,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>47119</v>
+        <v>46935</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18318,7 +18359,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>47150</v>
+        <v>46966</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18336,7 +18377,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>47178</v>
+        <v>46997</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18354,7 +18395,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>47209</v>
+        <v>47027</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18372,7 +18413,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>47239</v>
+        <v>47058</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18390,7 +18431,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>47270</v>
+        <v>47088</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18408,7 +18449,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>47300</v>
+        <v>47119</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18426,7 +18467,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>47331</v>
+        <v>47150</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18444,7 +18485,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47362</v>
+        <v>47178</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18462,7 +18503,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47392</v>
+        <v>47209</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18480,7 +18521,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47423</v>
+        <v>47239</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18498,7 +18539,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47453</v>
+        <v>47270</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18516,7 +18557,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47484</v>
+        <v>47300</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18534,7 +18575,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47515</v>
+        <v>47331</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18552,7 +18593,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47543</v>
+        <v>47362</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18570,7 +18611,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47574</v>
+        <v>47392</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18588,7 +18629,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47604</v>
+        <v>47423</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18606,7 +18647,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47635</v>
+        <v>47453</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18624,7 +18665,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47665</v>
+        <v>47484</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18642,7 +18683,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47696</v>
+        <v>47515</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18660,7 +18701,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47727</v>
+        <v>47543</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18678,7 +18719,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47757</v>
+        <v>47574</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18696,7 +18737,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47788</v>
+        <v>47604</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18714,7 +18755,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47818</v>
+        <v>47635</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18732,7 +18773,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47849</v>
+        <v>47665</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18750,7 +18791,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47880</v>
+        <v>47696</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18768,7 +18809,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47908</v>
+        <v>47727</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18786,7 +18827,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47939</v>
+        <v>47757</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18804,7 +18845,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47969</v>
+        <v>47788</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18822,7 +18863,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>48000</v>
+        <v>47818</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18840,7 +18881,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>48030</v>
+        <v>47849</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18858,7 +18899,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>48061</v>
+        <v>47880</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18876,7 +18917,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>48092</v>
+        <v>47908</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -18894,7 +18935,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>48122</v>
+        <v>47939</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -18912,7 +18953,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>48153</v>
+        <v>47969</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18930,7 +18971,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>48183</v>
+        <v>48000</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -18948,7 +18989,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>48214</v>
+        <v>48030</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -18966,7 +19007,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>48245</v>
+        <v>48061</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -18984,7 +19025,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>48274</v>
+        <v>48092</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19002,7 +19043,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>48305</v>
+        <v>48122</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19020,7 +19061,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>48335</v>
+        <v>48153</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19038,7 +19079,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>48366</v>
+        <v>48183</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19056,7 +19097,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>48396</v>
+        <v>48214</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19074,7 +19115,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>48427</v>
+        <v>48245</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19092,7 +19133,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>48458</v>
+        <v>48274</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19110,7 +19151,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48488</v>
+        <v>48305</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19128,7 +19169,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48519</v>
+        <v>48335</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19146,7 +19187,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48549</v>
+        <v>48366</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19164,7 +19205,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48580</v>
+        <v>48396</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19182,7 +19223,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48611</v>
+        <v>48427</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19200,7 +19241,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48639</v>
+        <v>48458</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19218,7 +19259,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48670</v>
+        <v>48488</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19236,7 +19277,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48700</v>
+        <v>48519</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19254,7 +19295,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48731</v>
+        <v>48549</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19272,7 +19313,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48761</v>
+        <v>48580</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19290,7 +19331,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48792</v>
+        <v>48611</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19308,7 +19349,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48823</v>
+        <v>48639</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19326,7 +19367,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48853</v>
+        <v>48670</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19344,7 +19385,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48884</v>
+        <v>48700</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19362,7 +19403,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48914</v>
+        <v>48731</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19380,7 +19421,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48945</v>
+        <v>48761</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19398,7 +19439,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48976</v>
+        <v>48792</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19416,7 +19457,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>49004</v>
+        <v>48823</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19434,7 +19475,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>49035</v>
+        <v>48853</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19452,7 +19493,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>49065</v>
+        <v>48884</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19470,7 +19511,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>49096</v>
+        <v>48914</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19488,7 +19529,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>49126</v>
+        <v>48945</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19506,7 +19547,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>49157</v>
+        <v>48976</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19524,7 +19565,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>49188</v>
+        <v>49004</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19542,7 +19583,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>49218</v>
+        <v>49035</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19560,7 +19601,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>49249</v>
+        <v>49065</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19578,7 +19619,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>49279</v>
+        <v>49096</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19596,7 +19637,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>49310</v>
+        <v>49126</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19614,7 +19655,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>49341</v>
+        <v>49157</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19632,7 +19673,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>49369</v>
+        <v>49188</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19650,7 +19691,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>49400</v>
+        <v>49218</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19668,7 +19709,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>49430</v>
+        <v>49249</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19686,7 +19727,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>49461</v>
+        <v>49279</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19704,7 +19745,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>49491</v>
+        <v>49310</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19722,7 +19763,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>49522</v>
+        <v>49341</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19740,7 +19781,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>49553</v>
+        <v>49369</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19758,7 +19799,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49583</v>
+        <v>49400</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19776,7 +19817,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49614</v>
+        <v>49430</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19794,7 +19835,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49644</v>
+        <v>49461</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19812,7 +19853,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49675</v>
+        <v>49491</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19830,7 +19871,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49706</v>
+        <v>49522</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19848,7 +19889,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49735</v>
+        <v>49553</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19866,7 +19907,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49766</v>
+        <v>49583</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19884,7 +19925,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49796</v>
+        <v>49614</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19902,7 +19943,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49827</v>
+        <v>49644</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19920,7 +19961,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49857</v>
+        <v>49675</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19938,7 +19979,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49888</v>
+        <v>49706</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -19956,7 +19997,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49919</v>
+        <v>49735</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -19974,7 +20015,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49949</v>
+        <v>49766</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -19992,7 +20033,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49980</v>
+        <v>49796</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20010,7 +20051,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>50010</v>
+        <v>49827</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20028,7 +20069,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>50041</v>
+        <v>49857</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20046,7 +20087,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>50072</v>
+        <v>49888</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20064,7 +20105,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>50100</v>
+        <v>49919</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20082,7 +20123,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>50131</v>
+        <v>49949</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20100,7 +20141,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>50161</v>
+        <v>49980</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20118,7 +20159,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>50192</v>
+        <v>50010</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20136,7 +20177,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>50222</v>
+        <v>50041</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20154,7 +20195,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>50253</v>
+        <v>50072</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20172,7 +20213,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>50284</v>
+        <v>50100</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20190,7 +20231,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>50314</v>
+        <v>50131</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20208,7 +20249,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>50345</v>
+        <v>50161</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20226,7 +20267,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>50375</v>
+        <v>50192</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20244,7 +20285,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>50406</v>
+        <v>50222</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20262,7 +20303,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>50437</v>
+        <v>50253</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20280,7 +20321,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>50465</v>
+        <v>50284</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20298,7 +20339,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>50496</v>
+        <v>50314</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20316,7 +20357,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>50526</v>
+        <v>50345</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20334,7 +20375,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>50557</v>
+        <v>50375</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20352,7 +20393,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>50587</v>
+        <v>50406</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20370,7 +20411,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>50618</v>
+        <v>50437</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20388,7 +20429,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>50649</v>
+        <v>50465</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20406,7 +20447,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>50679</v>
+        <v>50496</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20424,7 +20465,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>50710</v>
+        <v>50526</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20442,7 +20483,7 @@
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
-        <v>50740</v>
+        <v>50557</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20460,7 +20501,7 @@
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
-        <v>50771</v>
+        <v>50587</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20478,7 +20519,7 @@
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
-        <v>50802</v>
+        <v>50618</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20496,7 +20537,7 @@
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
-        <v>50830</v>
+        <v>50649</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20514,7 +20555,7 @@
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
-        <v>50861</v>
+        <v>50679</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -20532,7 +20573,7 @@
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
-        <v>50891</v>
+        <v>50710</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -20550,7 +20591,7 @@
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40">
-        <v>50922</v>
+        <v>50740</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -20568,7 +20609,7 @@
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40">
-        <v>50952</v>
+        <v>50771</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -20583,6 +20624,114 @@
       <c r="I833" s="9"/>
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A834" s="40">
+        <v>50802</v>
+      </c>
+      <c r="B834" s="20"/>
+      <c r="C834" s="13"/>
+      <c r="D834" s="39"/>
+      <c r="E834" s="9"/>
+      <c r="F834" s="20"/>
+      <c r="G834" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H834" s="39"/>
+      <c r="I834" s="9"/>
+      <c r="J834" s="11"/>
+      <c r="K834" s="20"/>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="40">
+        <v>50830</v>
+      </c>
+      <c r="B835" s="20"/>
+      <c r="C835" s="13"/>
+      <c r="D835" s="39"/>
+      <c r="E835" s="9"/>
+      <c r="F835" s="20"/>
+      <c r="G835" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H835" s="39"/>
+      <c r="I835" s="9"/>
+      <c r="J835" s="11"/>
+      <c r="K835" s="20"/>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836" s="40">
+        <v>50861</v>
+      </c>
+      <c r="B836" s="20"/>
+      <c r="C836" s="13"/>
+      <c r="D836" s="39"/>
+      <c r="E836" s="9"/>
+      <c r="F836" s="20"/>
+      <c r="G836" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H836" s="39"/>
+      <c r="I836" s="9"/>
+      <c r="J836" s="11"/>
+      <c r="K836" s="20"/>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A837" s="40">
+        <v>50891</v>
+      </c>
+      <c r="B837" s="20"/>
+      <c r="C837" s="13"/>
+      <c r="D837" s="39"/>
+      <c r="E837" s="9"/>
+      <c r="F837" s="20"/>
+      <c r="G837" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H837" s="39"/>
+      <c r="I837" s="9"/>
+      <c r="J837" s="11"/>
+      <c r="K837" s="20"/>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="40">
+        <v>50922</v>
+      </c>
+      <c r="B838" s="20"/>
+      <c r="C838" s="13"/>
+      <c r="D838" s="39"/>
+      <c r="E838" s="9"/>
+      <c r="F838" s="20"/>
+      <c r="G838" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H838" s="39"/>
+      <c r="I838" s="9"/>
+      <c r="J838" s="11"/>
+      <c r="K838" s="20"/>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A839" s="40">
+        <v>50952</v>
+      </c>
+      <c r="B839" s="20"/>
+      <c r="C839" s="13"/>
+      <c r="D839" s="39"/>
+      <c r="E839" s="9"/>
+      <c r="F839" s="20"/>
+      <c r="G839" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H839" s="39"/>
+      <c r="I839" s="9"/>
+      <c r="J839" s="11"/>
+      <c r="K839" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20699,11 +20848,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/GSO/PERIDO , EDWIN.xlsx
+++ b/REGULAR/GSO/PERIDO , EDWIN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="569">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2581,7 +2581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K839" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K841" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2910,11 +2910,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K839"/>
+  <dimension ref="A2:K841"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
+      <pane ySplit="9" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K651" sqref="K651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3081,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>147.6699999999999</v>
+        <v>150.1699999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3091,7 +3091,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>99.448000000000008</v>
+        <v>98.948000000000008</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17260,13 +17260,15 @@
       <c r="B647" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C647" s="13"/>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D647" s="39"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="39">
         <v>1</v>
@@ -17282,13 +17284,15 @@
         <v>45139</v>
       </c>
       <c r="B648" s="20"/>
-      <c r="C648" s="13"/>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
@@ -17299,7 +17303,9 @@
       <c r="A649" s="40">
         <v>45170</v>
       </c>
-      <c r="B649" s="20"/>
+      <c r="B649" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C649" s="13"/>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
@@ -17308,16 +17314,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H649" s="39"/>
+      <c r="H649" s="39">
+        <v>1</v>
+      </c>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="49">
+        <v>45177</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B650" s="20"/>
+      <c r="A650" s="40"/>
+      <c r="B650" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C650" s="13"/>
       <c r="D650" s="39"/>
       <c r="E650" s="9"/>
@@ -17326,16 +17336,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H650" s="39"/>
+      <c r="H650" s="39">
+        <v>1</v>
+      </c>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
-      <c r="K650" s="20"/>
+      <c r="K650" s="49">
+        <v>45174</v>
+      </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B651" s="20"/>
+      <c r="A651" s="40"/>
+      <c r="B651" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C651" s="13"/>
       <c r="D651" s="39"/>
       <c r="E651" s="9"/>
@@ -17344,14 +17358,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H651" s="39"/>
+      <c r="H651" s="39">
+        <v>1</v>
+      </c>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="49">
+        <v>45182</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17369,7 +17387,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17387,7 +17405,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17405,7 +17423,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17423,7 +17441,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17441,7 +17459,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17459,7 +17477,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17477,7 +17495,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17495,7 +17513,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17513,7 +17531,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17531,7 +17549,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17549,7 +17567,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17567,7 +17585,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17585,7 +17603,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17603,7 +17621,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17621,7 +17639,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17639,7 +17657,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17657,7 +17675,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17675,7 +17693,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17693,7 +17711,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17711,7 +17729,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17729,7 +17747,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17747,7 +17765,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17765,7 +17783,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17783,7 +17801,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17801,7 +17819,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17819,7 +17837,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17837,7 +17855,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17855,7 +17873,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17873,7 +17891,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17891,7 +17909,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17909,7 +17927,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17927,7 +17945,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17945,7 +17963,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17963,7 +17981,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17981,7 +17999,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17999,7 +18017,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18017,7 +18035,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18035,7 +18053,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18053,7 +18071,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18071,7 +18089,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18089,7 +18107,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18107,7 +18125,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18125,7 +18143,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18143,7 +18161,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18161,7 +18179,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18179,7 +18197,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18197,7 +18215,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18215,7 +18233,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18233,7 +18251,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18251,7 +18269,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18269,7 +18287,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18287,7 +18305,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18305,7 +18323,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18323,7 +18341,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18341,7 +18359,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18359,7 +18377,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18377,7 +18395,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18395,7 +18413,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18413,7 +18431,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18431,7 +18449,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18449,7 +18467,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18467,7 +18485,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18485,7 +18503,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18503,7 +18521,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18521,7 +18539,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18539,7 +18557,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18557,7 +18575,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18575,7 +18593,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18593,7 +18611,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18611,7 +18629,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18629,7 +18647,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18647,7 +18665,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18665,7 +18683,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18683,7 +18701,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18701,7 +18719,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18719,7 +18737,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18737,7 +18755,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18755,7 +18773,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18773,7 +18791,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18791,7 +18809,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18809,7 +18827,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18827,7 +18845,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18845,7 +18863,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18863,7 +18881,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18881,7 +18899,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18899,7 +18917,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18917,7 +18935,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -18935,7 +18953,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -18953,7 +18971,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18971,7 +18989,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -18989,7 +19007,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19007,7 +19025,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19025,7 +19043,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19043,7 +19061,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19061,7 +19079,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19079,7 +19097,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19097,7 +19115,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19115,7 +19133,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19133,7 +19151,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19151,7 +19169,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19169,7 +19187,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19187,7 +19205,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19205,7 +19223,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19223,7 +19241,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19241,7 +19259,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19259,7 +19277,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19277,7 +19295,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19295,7 +19313,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19313,7 +19331,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19331,7 +19349,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19349,7 +19367,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19367,7 +19385,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19385,7 +19403,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19403,7 +19421,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19421,7 +19439,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19439,7 +19457,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19457,7 +19475,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19475,7 +19493,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19493,7 +19511,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19511,7 +19529,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19529,7 +19547,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19547,7 +19565,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19565,7 +19583,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19583,7 +19601,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19601,7 +19619,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19619,7 +19637,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19637,7 +19655,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19655,7 +19673,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19673,7 +19691,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19691,7 +19709,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19709,7 +19727,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19727,7 +19745,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19745,7 +19763,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19763,7 +19781,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19781,7 +19799,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19799,7 +19817,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19817,7 +19835,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19835,7 +19853,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19853,7 +19871,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19871,7 +19889,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49522</v>
+        <v>49461</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19889,7 +19907,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49553</v>
+        <v>49491</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19907,7 +19925,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49583</v>
+        <v>49522</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19925,7 +19943,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49614</v>
+        <v>49553</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19943,7 +19961,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49644</v>
+        <v>49583</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19961,7 +19979,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49675</v>
+        <v>49614</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19979,7 +19997,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49706</v>
+        <v>49644</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -19997,7 +20015,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49735</v>
+        <v>49675</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20015,7 +20033,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49766</v>
+        <v>49706</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20033,7 +20051,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49796</v>
+        <v>49735</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20051,7 +20069,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49827</v>
+        <v>49766</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20069,7 +20087,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49857</v>
+        <v>49796</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20087,7 +20105,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49888</v>
+        <v>49827</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20105,7 +20123,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49919</v>
+        <v>49857</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20123,7 +20141,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49949</v>
+        <v>49888</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20141,7 +20159,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49980</v>
+        <v>49919</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20159,7 +20177,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>50010</v>
+        <v>49949</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20177,7 +20195,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>50041</v>
+        <v>49980</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20195,7 +20213,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>50072</v>
+        <v>50010</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20213,7 +20231,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>50100</v>
+        <v>50041</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20231,7 +20249,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>50131</v>
+        <v>50072</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20249,7 +20267,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>50161</v>
+        <v>50100</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20267,7 +20285,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>50192</v>
+        <v>50131</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20285,7 +20303,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>50222</v>
+        <v>50161</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20303,7 +20321,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>50253</v>
+        <v>50192</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20321,7 +20339,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>50284</v>
+        <v>50222</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20339,7 +20357,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>50314</v>
+        <v>50253</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20357,7 +20375,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>50345</v>
+        <v>50284</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20375,7 +20393,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>50375</v>
+        <v>50314</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20393,7 +20411,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>50406</v>
+        <v>50345</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20411,7 +20429,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>50437</v>
+        <v>50375</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20429,7 +20447,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
-        <v>50465</v>
+        <v>50406</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20447,7 +20465,7 @@
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
-        <v>50496</v>
+        <v>50437</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20465,7 +20483,7 @@
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
-        <v>50526</v>
+        <v>50465</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20483,7 +20501,7 @@
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
-        <v>50557</v>
+        <v>50496</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20501,7 +20519,7 @@
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
-        <v>50587</v>
+        <v>50526</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20519,7 +20537,7 @@
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
-        <v>50618</v>
+        <v>50557</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20537,7 +20555,7 @@
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
-        <v>50649</v>
+        <v>50587</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20555,7 +20573,7 @@
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
-        <v>50679</v>
+        <v>50618</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -20573,7 +20591,7 @@
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
-        <v>50710</v>
+        <v>50649</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -20591,7 +20609,7 @@
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40">
-        <v>50740</v>
+        <v>50679</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -20609,7 +20627,7 @@
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40">
-        <v>50771</v>
+        <v>50710</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -20627,7 +20645,7 @@
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="40">
-        <v>50802</v>
+        <v>50740</v>
       </c>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -20645,7 +20663,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="40">
-        <v>50830</v>
+        <v>50771</v>
       </c>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -20663,7 +20681,7 @@
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="40">
-        <v>50861</v>
+        <v>50802</v>
       </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -20681,7 +20699,7 @@
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="40">
-        <v>50891</v>
+        <v>50830</v>
       </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -20699,7 +20717,7 @@
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="40">
-        <v>50922</v>
+        <v>50861</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -20717,7 +20735,7 @@
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="40">
-        <v>50952</v>
+        <v>50891</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -20732,6 +20750,42 @@
       <c r="I839" s="9"/>
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840" s="40">
+        <v>50922</v>
+      </c>
+      <c r="B840" s="20"/>
+      <c r="C840" s="13"/>
+      <c r="D840" s="39"/>
+      <c r="E840" s="9"/>
+      <c r="F840" s="20"/>
+      <c r="G840" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H840" s="39"/>
+      <c r="I840" s="9"/>
+      <c r="J840" s="11"/>
+      <c r="K840" s="20"/>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A841" s="40">
+        <v>50952</v>
+      </c>
+      <c r="B841" s="20"/>
+      <c r="C841" s="13"/>
+      <c r="D841" s="39"/>
+      <c r="E841" s="9"/>
+      <c r="F841" s="20"/>
+      <c r="G841" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H841" s="39"/>
+      <c r="I841" s="9"/>
+      <c r="J841" s="11"/>
+      <c r="K841" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20748,7 +20802,7 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/REGULAR/GSO/PERIDO , EDWIN.xlsx
+++ b/REGULAR/GSO/PERIDO , EDWIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8307A7-137F-4E63-8616-76824AFCC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="571">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1861,11 +1862,17 @@
   <si>
     <t>5/11,12,25,2022</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/30,31/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2564,7 +2571,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2581,25 +2588,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K841" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K842" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2906,33 +2913,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K841"/>
+  <dimension ref="A2:K842"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K651" sqref="K651"/>
+      <pane ySplit="9" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K657" sqref="K657"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2962,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2977,7 +2984,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +3006,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3007,7 +3014,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3020,7 +3027,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3037,7 +3044,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3081,7 +3088,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>150.1699999999999</v>
+        <v>156.4199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3091,12 +3098,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.948000000000008</v>
+        <v>103.19800000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -3118,7 +3125,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -3138,7 +3145,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36008</v>
       </c>
@@ -3184,7 +3191,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36039</v>
       </c>
@@ -3204,7 +3211,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36069</v>
       </c>
@@ -3224,7 +3231,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>36100</v>
       </c>
@@ -3244,7 +3251,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -3270,7 +3277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>52</v>
       </c>
@@ -3288,7 +3295,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36161</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36192</v>
       </c>
@@ -3334,7 +3341,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36220</v>
       </c>
@@ -3354,7 +3361,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36251</v>
       </c>
@@ -3374,7 +3381,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36281</v>
       </c>
@@ -3394,7 +3401,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36312</v>
       </c>
@@ -3414,7 +3421,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36342</v>
       </c>
@@ -3434,7 +3441,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36373</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36404</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -3508,7 +3515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36434</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3550,7 +3557,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36465</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>36170</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36495</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -3614,7 +3621,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36526</v>
       </c>
@@ -3634,7 +3641,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36557</v>
       </c>
@@ -3654,7 +3661,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36586</v>
       </c>
@@ -3676,7 +3683,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3694,7 +3701,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36617</v>
       </c>
@@ -3720,7 +3727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -3742,7 +3749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -3762,7 +3769,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -3782,7 +3789,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -3802,7 +3809,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -3822,7 +3829,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -3842,7 +3849,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -3894,7 +3901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36861</v>
       </c>
@@ -3918,7 +3925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>73</v>
       </c>
@@ -3936,7 +3943,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36892</v>
       </c>
@@ -3956,7 +3963,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36923</v>
       </c>
@@ -3976,7 +3983,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36951</v>
       </c>
@@ -3996,7 +4003,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36982</v>
       </c>
@@ -4016,7 +4023,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37012</v>
       </c>
@@ -4036,7 +4043,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37043</v>
       </c>
@@ -4056,7 +4063,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37073</v>
       </c>
@@ -4082,7 +4089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37104</v>
       </c>
@@ -4102,7 +4109,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37135</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>37165</v>
       </c>
@@ -4148,7 +4155,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37196</v>
       </c>
@@ -4168,7 +4175,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37226</v>
       </c>
@@ -4192,7 +4199,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>76</v>
       </c>
@@ -4210,7 +4217,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37257</v>
       </c>
@@ -4230,7 +4237,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37288</v>
       </c>
@@ -4258,7 +4265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37316</v>
       </c>
@@ -4284,7 +4291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37347</v>
       </c>
@@ -4308,7 +4315,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37377</v>
       </c>
@@ -4332,7 +4339,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37408</v>
       </c>
@@ -4356,7 +4363,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37438</v>
       </c>
@@ -4378,7 +4385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -4400,7 +4407,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37469</v>
       </c>
@@ -4420,7 +4427,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37500</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37530</v>
       </c>
@@ -4472,7 +4479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37561</v>
       </c>
@@ -4492,7 +4499,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37591</v>
       </c>
@@ -4512,7 +4519,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>85</v>
       </c>
@@ -4530,7 +4537,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37622</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37653</v>
       </c>
@@ -4570,7 +4577,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37712</v>
       </c>
@@ -4590,7 +4597,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37742</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37773</v>
       </c>
@@ -4634,7 +4641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37803</v>
       </c>
@@ -4660,7 +4667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>86</v>
@@ -4682,7 +4689,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37834</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4732,7 +4739,7 @@
         <v>37841</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -4750,7 +4757,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37865</v>
       </c>
@@ -4774,7 +4781,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37895</v>
       </c>
@@ -4798,7 +4805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>57</v>
@@ -4822,7 +4829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37926</v>
       </c>
@@ -4842,7 +4849,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37956</v>
       </c>
@@ -4866,7 +4873,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>98</v>
       </c>
@@ -4884,7 +4891,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37987</v>
       </c>
@@ -4910,7 +4917,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>99</v>
@@ -4934,7 +4941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38018</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>102</v>
@@ -4982,7 +4989,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38047</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>554</v>
@@ -5028,7 +5035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5074,7 +5081,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>108</v>
@@ -5096,7 +5103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>109</v>
@@ -5118,7 +5125,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>110</v>
@@ -5138,7 +5145,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -5158,7 +5165,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38139</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38169</v>
       </c>
@@ -5204,7 +5211,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38200</v>
       </c>
@@ -5230,7 +5237,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>115</v>
@@ -5250,7 +5257,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38231</v>
       </c>
@@ -5274,7 +5281,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38261</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -5322,7 +5329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>53</v>
@@ -5344,7 +5351,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>118</v>
@@ -5366,7 +5373,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38261</v>
       </c>
@@ -5388,7 +5395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38292</v>
       </c>
@@ -5408,7 +5415,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38322</v>
       </c>
@@ -5430,7 +5437,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>53</v>
@@ -5452,7 +5459,7 @@
         <v>38029</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>53</v>
@@ -5474,7 +5481,7 @@
         <v>38211</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>53</v>
@@ -5496,7 +5503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>125</v>
       </c>
@@ -5514,7 +5521,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38353</v>
       </c>
@@ -5540,7 +5547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>57</v>
@@ -5562,7 +5569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>57</v>
@@ -5584,7 +5591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>128</v>
@@ -5604,7 +5611,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>38384</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -5652,7 +5659,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>94</v>
@@ -5674,7 +5681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>132</v>
@@ -5694,7 +5701,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38412</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>133</v>
@@ -5738,7 +5745,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38443</v>
       </c>
@@ -5760,7 +5767,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>109</v>
@@ -5782,7 +5789,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>136</v>
@@ -5806,7 +5813,7 @@
         <v>38416</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38473</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -5854,7 +5861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>138</v>
@@ -5874,7 +5881,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38504</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>141</v>
@@ -5920,7 +5927,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>142</v>
@@ -5940,7 +5947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38534</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5984,7 +5991,7 @@
         <v>38663</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>101</v>
@@ -6004,7 +6011,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>147</v>
@@ -6024,7 +6031,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38565</v>
       </c>
@@ -6048,7 +6055,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38596</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>109</v>
@@ -6096,7 +6103,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="15" t="s">
         <v>151</v>
@@ -6116,7 +6123,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38626</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6164,7 +6171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>154</v>
@@ -6186,7 +6193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>155</v>
@@ -6208,7 +6215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>161</v>
@@ -6228,7 +6235,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38657</v>
       </c>
@@ -6254,7 +6261,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>156</v>
@@ -6274,7 +6281,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38687</v>
       </c>
@@ -6298,7 +6305,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
         <v>164</v>
       </c>
@@ -6316,7 +6323,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38718</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="15" t="s">
         <v>141</v>
@@ -6360,7 +6367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>101</v>
@@ -6382,7 +6389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>166</v>
@@ -6402,7 +6409,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -6428,7 +6435,7 @@
         <v>38750</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>53</v>
@@ -6450,7 +6457,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>170</v>
@@ -6470,7 +6477,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38777</v>
       </c>
@@ -6496,7 +6503,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>173</v>
@@ -6516,7 +6523,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38808</v>
       </c>
@@ -6542,7 +6549,7 @@
         <v>38872</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>48</v>
@@ -6564,7 +6571,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>53</v>
@@ -6586,7 +6593,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>53</v>
@@ -6608,7 +6615,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>174</v>
@@ -6632,7 +6639,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38838</v>
       </c>
@@ -6654,7 +6661,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -6678,7 +6685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>181</v>
@@ -6724,7 +6731,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <v>38899</v>
       </c>
@@ -6750,7 +6757,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>182</v>
@@ -6770,7 +6777,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>101</v>
@@ -6818,7 +6825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>146</v>
@@ -6840,7 +6847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>146</v>
@@ -6862,7 +6869,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>184</v>
@@ -6882,7 +6889,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="49"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38961</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -6930,7 +6937,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>190</v>
@@ -6950,7 +6957,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38991</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -6998,7 +7005,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>193</v>
@@ -7018,7 +7025,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>39022</v>
       </c>
@@ -7044,7 +7051,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>101</v>
@@ -7066,7 +7073,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>101</v>
@@ -7088,7 +7095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>197</v>
@@ -7108,7 +7115,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39052</v>
       </c>
@@ -7130,7 +7137,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>101</v>
@@ -7152,7 +7159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>202</v>
@@ -7176,7 +7183,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>205</v>
       </c>
@@ -7194,7 +7201,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39083</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>154</v>
@@ -7240,7 +7247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>206</v>
@@ -7260,7 +7267,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>207</v>
@@ -7280,7 +7287,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>39114</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -7330,7 +7337,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39173</v>
       </c>
@@ -7356,7 +7363,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>146</v>
@@ -7378,7 +7385,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>213</v>
@@ -7398,7 +7405,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39203</v>
       </c>
@@ -7424,7 +7431,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="15" t="s">
         <v>216</v>
@@ -7444,7 +7451,7 @@
       <c r="J205" s="12"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39234</v>
       </c>
@@ -7470,7 +7477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>218</v>
@@ -7490,7 +7497,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>39264</v>
       </c>
@@ -7516,7 +7523,7 @@
         <v>39393</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>220</v>
@@ -7538,7 +7545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>221</v>
@@ -7558,7 +7565,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39295</v>
       </c>
@@ -7582,7 +7589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>224</v>
@@ -7602,7 +7609,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39326</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>226</v>
@@ -7650,7 +7657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>223</v>
@@ -7672,7 +7679,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>227</v>
@@ -7692,7 +7699,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39356</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>231</v>
@@ -7736,7 +7743,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>232</v>
@@ -7758,7 +7765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39387</v>
       </c>
@@ -7780,7 +7787,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>226</v>
@@ -7802,7 +7809,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -7824,7 +7831,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="15" t="s">
         <v>234</v>
@@ -7848,7 +7855,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39417</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>226</v>
@@ -7892,7 +7899,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>226</v>
@@ -7912,7 +7919,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>226</v>
@@ -7932,7 +7939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>239</v>
@@ -7952,7 +7959,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
         <v>243</v>
       </c>
@@ -7970,7 +7977,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39448</v>
       </c>
@@ -7994,7 +8001,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>165</v>
@@ -8014,7 +8021,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>244</v>
@@ -8034,7 +8041,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39479</v>
       </c>
@@ -8060,7 +8067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>223</v>
@@ -8082,7 +8089,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>223</v>
@@ -8104,7 +8111,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>223</v>
@@ -8126,7 +8133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>248</v>
@@ -8143,7 +8150,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41">
         <v>68728</v>
       </c>
@@ -8164,7 +8171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>247</v>
@@ -8181,7 +8188,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>247</v>
@@ -8198,7 +8205,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>253</v>
@@ -8215,7 +8222,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39539</v>
       </c>
@@ -8238,7 +8245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>146</v>
@@ -8257,7 +8264,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>254</v>
@@ -8274,7 +8281,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39569</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>101</v>
@@ -8316,7 +8323,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>101</v>
@@ -8335,7 +8342,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>101</v>
@@ -8350,7 +8357,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>257</v>
@@ -8367,7 +8374,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39600</v>
       </c>
@@ -8393,7 +8400,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>223</v>
@@ -8415,7 +8422,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>260</v>
@@ -8435,7 +8442,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39630</v>
       </c>
@@ -8459,7 +8466,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39661</v>
       </c>
@@ -8483,7 +8490,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41">
         <v>39692</v>
       </c>
@@ -8509,7 +8516,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>223</v>
@@ -8531,7 +8538,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
@@ -8553,7 +8560,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>223</v>
@@ -8573,7 +8580,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>265</v>
@@ -8593,7 +8600,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39722</v>
       </c>
@@ -8617,7 +8624,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>223</v>
@@ -8637,7 +8644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>247</v>
@@ -8659,7 +8666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>270</v>
@@ -8679,7 +8686,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39753</v>
       </c>
@@ -8705,7 +8712,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>272</v>
@@ -8727,7 +8734,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>273</v>
@@ -8747,7 +8754,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>39783</v>
       </c>
@@ -8773,7 +8780,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>101</v>
@@ -8795,7 +8802,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>276</v>
@@ -8815,7 +8822,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -8831,7 +8838,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="54" t="s">
         <v>269</v>
       </c>
@@ -8851,7 +8858,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8875,7 +8882,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>278</v>
@@ -8895,7 +8902,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>39845</v>
       </c>
@@ -8919,7 +8926,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>39873</v>
       </c>
@@ -8945,7 +8952,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>165</v>
@@ -8965,7 +8972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>165</v>
@@ -8985,7 +8992,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>165</v>
@@ -9005,7 +9012,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>281</v>
@@ -9023,7 +9030,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39904</v>
       </c>
@@ -9049,7 +9056,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>223</v>
@@ -9071,7 +9078,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="41"/>
       <c r="B282" s="15" t="s">
         <v>286</v>
@@ -9089,7 +9096,7 @@
       <c r="J282" s="12"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39934</v>
       </c>
@@ -9115,7 +9122,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>288</v>
@@ -9135,7 +9142,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39965</v>
       </c>
@@ -9161,7 +9168,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>289</v>
@@ -9181,7 +9188,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39995</v>
       </c>
@@ -9205,7 +9212,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40026</v>
       </c>
@@ -9231,7 +9238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>292</v>
@@ -9253,7 +9260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>296</v>
@@ -9273,7 +9280,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40057</v>
       </c>
@@ -9297,7 +9304,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40087</v>
       </c>
@@ -9323,7 +9330,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>298</v>
@@ -9343,7 +9350,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40118</v>
       </c>
@@ -9369,7 +9376,7 @@
         <v>40067</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -9391,7 +9398,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>300</v>
@@ -9411,7 +9418,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="41">
         <v>40148</v>
       </c>
@@ -9437,7 +9444,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>302</v>
@@ -9457,7 +9464,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23" t="s">
         <v>304</v>
       </c>
@@ -9475,7 +9482,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40179</v>
       </c>
@@ -9499,7 +9506,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>292</v>
@@ -9521,7 +9528,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>555</v>
@@ -9541,7 +9548,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40210</v>
       </c>
@@ -9567,7 +9574,7 @@
         <v>40453</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>226</v>
@@ -9589,7 +9596,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>307</v>
@@ -9609,7 +9616,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40238</v>
       </c>
@@ -9635,7 +9642,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>309</v>
@@ -9655,7 +9662,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>310</v>
@@ -9675,7 +9682,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40269</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>223</v>
@@ -9723,7 +9730,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="41"/>
       <c r="B311" s="15" t="s">
         <v>312</v>
@@ -9743,7 +9750,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40299</v>
       </c>
@@ -9767,7 +9774,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>278</v>
@@ -9789,7 +9796,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40330</v>
       </c>
@@ -9815,7 +9822,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>165</v>
@@ -9835,7 +9842,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>223</v>
@@ -9857,7 +9864,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>315</v>
@@ -9877,7 +9884,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9903,7 +9910,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>247</v>
@@ -9925,7 +9932,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>318</v>
@@ -9947,7 +9954,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>319</v>
@@ -9967,7 +9974,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="41">
         <v>40391</v>
       </c>
@@ -9993,7 +10000,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -10013,7 +10020,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>323</v>
@@ -10035,7 +10042,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40452</v>
       </c>
@@ -10059,7 +10066,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>325</v>
@@ -10083,7 +10090,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -10103,7 +10110,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>231</v>
@@ -10127,7 +10134,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>329</v>
@@ -10151,7 +10158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>40513</v>
       </c>
@@ -10175,7 +10182,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="48" t="s">
         <v>333</v>
       </c>
@@ -10193,7 +10200,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40544</v>
       </c>
@@ -10217,7 +10224,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>223</v>
@@ -10235,7 +10242,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>226</v>
@@ -10257,7 +10264,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="41"/>
       <c r="B335" s="15" t="s">
         <v>334</v>
@@ -10279,7 +10286,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>335</v>
@@ -10301,7 +10308,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40575</v>
       </c>
@@ -10325,7 +10332,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>272</v>
@@ -10345,7 +10352,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>165</v>
@@ -10365,7 +10372,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>338</v>
@@ -10387,7 +10394,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>40603</v>
       </c>
@@ -10411,7 +10418,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40634</v>
       </c>
@@ -10435,7 +10442,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40664</v>
       </c>
@@ -10461,7 +10468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>346</v>
@@ -10479,7 +10486,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="49"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>37043</v>
       </c>
@@ -10503,7 +10510,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>345</v>
@@ -10525,7 +10532,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="41">
         <v>40725</v>
       </c>
@@ -10549,7 +10556,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>347</v>
@@ -10571,7 +10578,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40756</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>349</v>
@@ -10617,7 +10624,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40787</v>
       </c>
@@ -10641,7 +10648,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>226</v>
@@ -10663,7 +10670,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>351</v>
@@ -10685,7 +10692,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40817</v>
       </c>
@@ -10709,7 +10716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>354</v>
@@ -10731,7 +10738,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40848</v>
       </c>
@@ -10755,7 +10762,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>356</v>
@@ -10777,7 +10784,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40878</v>
       </c>
@@ -10801,7 +10808,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>226</v>
@@ -10823,7 +10830,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>357</v>
@@ -10845,7 +10852,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="55" t="s">
         <v>360</v>
       </c>
@@ -10863,7 +10870,7 @@
       <c r="J361" s="12"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40909</v>
       </c>
@@ -10887,7 +10894,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>361</v>
@@ -10907,7 +10914,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40940</v>
       </c>
@@ -10931,7 +10938,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>165</v>
@@ -10951,7 +10958,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>165</v>
@@ -10971,7 +10978,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>364</v>
@@ -10991,7 +10998,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40969</v>
       </c>
@@ -11015,7 +11022,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>41000</v>
       </c>
@@ -11039,7 +11046,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>226</v>
@@ -11061,7 +11068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>369</v>
@@ -11083,7 +11090,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41030</v>
       </c>
@@ -11107,7 +11114,7 @@
         <v>41126</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>353</v>
@@ -11129,7 +11136,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="41">
         <v>41061</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>223</v>
@@ -11177,7 +11184,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41091</v>
       </c>
@@ -11197,7 +11204,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>226</v>
@@ -11219,7 +11226,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>374</v>
@@ -11243,7 +11250,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41122</v>
       </c>
@@ -11267,7 +11274,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41153</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>378</v>
@@ -11313,7 +11320,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>223</v>
@@ -11335,7 +11342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>223</v>
@@ -11357,7 +11364,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>379</v>
@@ -11377,7 +11384,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="41">
         <v>41183</v>
       </c>
@@ -11401,7 +11408,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>57</v>
@@ -11423,7 +11430,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>383</v>
@@ -11449,7 +11456,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>41214</v>
       </c>
@@ -11473,7 +11480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>364</v>
@@ -11495,7 +11502,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41244</v>
       </c>
@@ -11519,7 +11526,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>388</v>
       </c>
@@ -11537,7 +11544,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41275</v>
       </c>
@@ -11559,7 +11566,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>389</v>
@@ -11581,7 +11588,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41306</v>
       </c>
@@ -11605,7 +11612,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>165</v>
@@ -11625,7 +11632,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41"/>
       <c r="B396" s="15" t="s">
         <v>165</v>
@@ -11645,7 +11652,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41334</v>
       </c>
@@ -11671,7 +11678,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41365</v>
       </c>
@@ -11695,7 +11702,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41395</v>
       </c>
@@ -11721,7 +11728,7 @@
         <v>41310</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>223</v>
@@ -11743,7 +11750,7 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>397</v>
@@ -11763,7 +11770,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41426</v>
       </c>
@@ -11787,7 +11794,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>41456</v>
       </c>
@@ -11811,7 +11818,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41487</v>
       </c>
@@ -11835,7 +11842,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="41"/>
       <c r="B405" s="15" t="s">
         <v>400</v>
@@ -11857,7 +11864,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>41518</v>
       </c>
@@ -11881,7 +11888,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>401</v>
@@ -11903,7 +11910,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>41548</v>
       </c>
@@ -11927,7 +11934,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>404</v>
@@ -11949,7 +11956,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41579</v>
       </c>
@@ -11973,7 +11980,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>226</v>
@@ -11995,7 +12002,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>223</v>
@@ -12017,7 +12024,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>406</v>
@@ -12039,7 +12046,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>41609</v>
       </c>
@@ -12063,7 +12070,7 @@
         <v>41345</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>364</v>
@@ -12085,7 +12092,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23" t="s">
         <v>408</v>
       </c>
@@ -12103,7 +12110,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="41">
         <v>41640</v>
       </c>
@@ -12125,7 +12132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>411</v>
@@ -12147,7 +12154,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>41671</v>
       </c>
@@ -12171,7 +12178,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>412</v>
@@ -12193,7 +12200,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41699</v>
       </c>
@@ -12217,7 +12224,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>226</v>
@@ -12239,7 +12246,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>345</v>
@@ -12261,7 +12268,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41730</v>
       </c>
@@ -12285,7 +12292,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>223</v>
@@ -12307,7 +12314,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>247</v>
@@ -12329,7 +12336,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>416</v>
@@ -12351,7 +12358,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41760</v>
       </c>
@@ -12369,7 +12376,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>223</v>
@@ -12391,7 +12398,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>223</v>
@@ -12413,7 +12420,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>223</v>
@@ -12435,7 +12442,7 @@
         <v>41735</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>416</v>
@@ -12457,7 +12464,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -12481,7 +12488,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -12505,7 +12512,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="41">
         <v>41852</v>
       </c>
@@ -12527,7 +12534,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>165</v>
@@ -12547,7 +12554,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>223</v>
@@ -12569,7 +12576,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>223</v>
@@ -12591,7 +12598,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>423</v>
@@ -12613,7 +12620,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>41883</v>
       </c>
@@ -12637,7 +12644,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>424</v>
@@ -12659,7 +12666,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41913</v>
       </c>
@@ -12683,7 +12690,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>399</v>
@@ -12705,7 +12712,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41944</v>
       </c>
@@ -12729,7 +12736,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>427</v>
@@ -12751,7 +12758,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>41974</v>
       </c>
@@ -12775,7 +12782,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>346</v>
@@ -12797,7 +12804,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="55" t="s">
         <v>429</v>
       </c>
@@ -12815,7 +12822,7 @@
       <c r="J448" s="12"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42005</v>
       </c>
@@ -12835,7 +12842,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42036</v>
       </c>
@@ -12859,7 +12866,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42064</v>
       </c>
@@ -12879,7 +12886,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42095</v>
       </c>
@@ -12901,7 +12908,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>223</v>
@@ -12923,7 +12930,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>431</v>
@@ -12945,7 +12952,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42125</v>
       </c>
@@ -12969,7 +12976,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42156</v>
       </c>
@@ -12993,7 +13000,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>165</v>
@@ -13013,7 +13020,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>436</v>
@@ -13035,7 +13042,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42186</v>
       </c>
@@ -13059,7 +13066,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42217</v>
       </c>
@@ -13083,7 +13090,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>438</v>
@@ -13105,7 +13112,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="41">
         <v>42248</v>
       </c>
@@ -13129,7 +13136,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>439</v>
@@ -13151,7 +13158,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42278</v>
       </c>
@@ -13175,7 +13182,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>223</v>
@@ -13197,7 +13204,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>441</v>
@@ -13219,7 +13226,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>42309</v>
       </c>
@@ -13243,7 +13250,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>223</v>
@@ -13265,7 +13272,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>223</v>
@@ -13287,7 +13294,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="41"/>
       <c r="B470" s="15" t="s">
         <v>444</v>
@@ -13309,7 +13316,7 @@
       <c r="J470" s="12"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>42339</v>
       </c>
@@ -13335,7 +13342,7 @@
         <v>42106</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>223</v>
@@ -13355,7 +13362,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>447</v>
@@ -13377,7 +13384,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23" t="s">
         <v>448</v>
       </c>
@@ -13395,7 +13402,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>42370</v>
       </c>
@@ -13419,7 +13426,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>165</v>
@@ -13439,7 +13446,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>451</v>
@@ -13461,7 +13468,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>452</v>
@@ -13483,7 +13490,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="41">
         <v>42401</v>
       </c>
@@ -13507,7 +13514,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>223</v>
@@ -13529,7 +13536,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>223</v>
@@ -13551,7 +13558,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>454</v>
@@ -13573,7 +13580,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42430</v>
       </c>
@@ -13597,7 +13604,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42461</v>
       </c>
@@ -13619,7 +13626,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>223</v>
@@ -13641,7 +13648,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>318</v>
@@ -13663,7 +13670,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>458</v>
@@ -13685,7 +13692,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>42491</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>462</v>
@@ -13731,7 +13738,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="41">
         <v>42522</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>42557</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>363</v>
@@ -13775,7 +13782,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>223</v>
@@ -13797,7 +13804,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>463</v>
@@ -13819,7 +13826,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42552</v>
       </c>
@@ -13843,7 +13850,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42583</v>
       </c>
@@ -13867,7 +13874,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>292</v>
@@ -13889,7 +13896,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>226</v>
@@ -13911,7 +13918,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>467</v>
@@ -13935,7 +13942,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>42614</v>
       </c>
@@ -13959,7 +13966,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>223</v>
@@ -13981,7 +13988,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>223</v>
@@ -14003,7 +14010,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>223</v>
@@ -14025,7 +14032,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>471</v>
@@ -14047,7 +14054,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42644</v>
       </c>
@@ -14071,7 +14078,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>437</v>
@@ -14093,7 +14100,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>223</v>
@@ -14115,7 +14122,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>437</v>
@@ -14135,7 +14142,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>223</v>
@@ -14157,7 +14164,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="41"/>
       <c r="B509" s="15" t="s">
         <v>223</v>
@@ -14179,7 +14186,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>475</v>
@@ -14201,7 +14208,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42675</v>
       </c>
@@ -14225,7 +14232,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>223</v>
@@ -14247,7 +14254,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>226</v>
@@ -14269,7 +14276,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>276</v>
@@ -14291,7 +14298,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>42705</v>
       </c>
@@ -14315,7 +14322,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>425</v>
@@ -14337,7 +14344,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>482</v>
@@ -14357,7 +14364,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>484</v>
       </c>
@@ -14375,7 +14382,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>42736</v>
       </c>
@@ -14395,7 +14402,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>226</v>
@@ -14419,7 +14426,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>223</v>
@@ -14441,7 +14448,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>485</v>
@@ -14463,7 +14470,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13">
@@ -14483,7 +14490,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42767</v>
       </c>
@@ -14507,7 +14514,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="41"/>
       <c r="B525" s="15" t="s">
         <v>60</v>
@@ -14531,7 +14538,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>42795</v>
       </c>
@@ -14557,7 +14564,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>223</v>
@@ -14579,7 +14586,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>223</v>
@@ -14603,7 +14610,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>42826</v>
       </c>
@@ -14629,7 +14636,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>223</v>
@@ -14649,7 +14656,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>226</v>
@@ -14671,7 +14678,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>223</v>
@@ -14693,7 +14700,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>42856</v>
       </c>
@@ -14713,7 +14720,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42887</v>
       </c>
@@ -14737,7 +14744,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42917</v>
       </c>
@@ -14763,7 +14770,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42948</v>
       </c>
@@ -14789,7 +14796,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>226</v>
@@ -14811,7 +14818,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>223</v>
@@ -14833,7 +14840,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>42979</v>
       </c>
@@ -14853,7 +14860,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43009</v>
       </c>
@@ -14877,7 +14884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>223</v>
@@ -14901,7 +14908,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>43040</v>
       </c>
@@ -14925,7 +14932,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>223</v>
@@ -14949,7 +14956,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43070</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -14991,7 +14998,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23" t="s">
         <v>507</v>
       </c>
@@ -15009,7 +15016,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43101</v>
       </c>
@@ -15035,7 +15042,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43132</v>
       </c>
@@ -15059,7 +15066,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>165</v>
@@ -15081,7 +15088,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="41">
         <v>43160</v>
       </c>
@@ -15101,7 +15108,7 @@
       <c r="J550" s="12"/>
       <c r="K550" s="15"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43191</v>
       </c>
@@ -15123,7 +15130,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>223</v>
@@ -15147,7 +15154,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>43221</v>
       </c>
@@ -15169,7 +15176,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>223</v>
@@ -15191,7 +15198,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>223</v>
@@ -15213,7 +15220,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>43252</v>
       </c>
@@ -15233,7 +15240,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43282</v>
       </c>
@@ -15259,7 +15266,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43313</v>
       </c>
@@ -15279,7 +15286,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>43344</v>
       </c>
@@ -15299,7 +15306,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>43374</v>
       </c>
@@ -15321,7 +15328,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>43405</v>
       </c>
@@ -15347,7 +15354,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>223</v>
@@ -15369,7 +15376,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43435</v>
       </c>
@@ -15395,7 +15402,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>165</v>
@@ -15415,7 +15422,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23" t="s">
         <v>519</v>
       </c>
@@ -15433,7 +15440,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="41">
         <v>43466</v>
       </c>
@@ -15455,7 +15462,7 @@
       <c r="J566" s="12"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43497</v>
       </c>
@@ -15475,7 +15482,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43160</v>
       </c>
@@ -15495,7 +15502,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43556</v>
       </c>
@@ -15519,7 +15526,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>223</v>
@@ -15541,7 +15548,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43586</v>
       </c>
@@ -15565,7 +15572,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43617</v>
       </c>
@@ -15591,7 +15598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>43647</v>
       </c>
@@ -15617,7 +15624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="41"/>
       <c r="B574" s="15" t="s">
         <v>223</v>
@@ -15639,7 +15646,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>223</v>
@@ -15661,7 +15668,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43678</v>
       </c>
@@ -15687,7 +15694,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43709</v>
       </c>
@@ -15713,7 +15720,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43739</v>
       </c>
@@ -15733,7 +15740,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43770</v>
       </c>
@@ -15759,7 +15766,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43800</v>
       </c>
@@ -15783,7 +15790,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23" t="s">
         <v>528</v>
       </c>
@@ -15801,7 +15808,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>43831</v>
       </c>
@@ -15825,7 +15832,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>409</v>
@@ -15845,7 +15852,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>43862</v>
       </c>
@@ -15865,7 +15872,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43891</v>
       </c>
@@ -15885,7 +15892,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="41">
         <v>43922</v>
       </c>
@@ -15905,7 +15912,7 @@
       <c r="J586" s="12"/>
       <c r="K586" s="15"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43952</v>
       </c>
@@ -15929,7 +15936,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>43983</v>
       </c>
@@ -15949,7 +15956,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44013</v>
       </c>
@@ -15969,7 +15976,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44044</v>
       </c>
@@ -15993,7 +16000,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>44075</v>
       </c>
@@ -16015,7 +16022,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44105</v>
       </c>
@@ -16039,7 +16046,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>292</v>
@@ -16061,7 +16068,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44136</v>
       </c>
@@ -16081,7 +16088,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>44166</v>
       </c>
@@ -16105,7 +16112,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="41"/>
       <c r="B596" s="15" t="s">
         <v>451</v>
@@ -16127,7 +16134,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>334</v>
@@ -16151,7 +16158,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="48" t="s">
         <v>539</v>
       </c>
@@ -16169,7 +16176,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44197</v>
       </c>
@@ -16195,7 +16202,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44228</v>
       </c>
@@ -16219,7 +16226,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>451</v>
@@ -16243,7 +16250,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44256</v>
       </c>
@@ -16269,7 +16276,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44287</v>
       </c>
@@ -16293,7 +16300,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44317</v>
       </c>
@@ -16313,7 +16320,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44348</v>
       </c>
@@ -16337,7 +16344,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>226</v>
@@ -16361,7 +16368,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>44378</v>
       </c>
@@ -16385,7 +16392,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>223</v>
@@ -16409,7 +16416,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44409</v>
       </c>
@@ -16429,7 +16436,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>44440</v>
       </c>
@@ -16449,7 +16456,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44470</v>
       </c>
@@ -16469,7 +16476,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44501</v>
       </c>
@@ -16489,7 +16496,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44531</v>
       </c>
@@ -16509,7 +16516,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="54" t="s">
         <v>546</v>
       </c>
@@ -16527,7 +16534,7 @@
       <c r="J614" s="12"/>
       <c r="K614" s="15"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44562</v>
       </c>
@@ -16547,7 +16554,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44593</v>
       </c>
@@ -16571,7 +16578,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>165</v>
@@ -16593,7 +16600,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44621</v>
       </c>
@@ -16617,7 +16624,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>223</v>
@@ -16641,7 +16648,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>404</v>
@@ -16661,7 +16668,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>44652</v>
       </c>
@@ -16687,7 +16694,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>567</v>
@@ -16709,7 +16716,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>456</v>
@@ -16729,7 +16736,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="49"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>44682</v>
       </c>
@@ -16755,7 +16762,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>44713</v>
       </c>
@@ -16781,7 +16788,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>223</v>
@@ -16803,7 +16810,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>565</v>
@@ -16823,7 +16830,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44743</v>
       </c>
@@ -16847,7 +16854,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>44774</v>
       </c>
@@ -16871,7 +16878,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>44805</v>
       </c>
@@ -16897,7 +16904,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>564</v>
@@ -16917,7 +16924,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="49"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>44835</v>
       </c>
@@ -16943,7 +16950,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>431</v>
@@ -16963,7 +16970,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="49"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44866</v>
       </c>
@@ -16987,7 +16994,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>44896</v>
       </c>
@@ -17013,7 +17020,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="41"/>
       <c r="B636" s="15" t="s">
         <v>53</v>
@@ -17035,7 +17042,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="41"/>
       <c r="B637" s="15" t="s">
         <v>57</v>
@@ -17057,7 +17064,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>424</v>
@@ -17077,7 +17084,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="49"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="54" t="s">
         <v>557</v>
       </c>
@@ -17095,7 +17102,7 @@
       <c r="J639" s="12"/>
       <c r="K639" s="15"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>44927</v>
       </c>
@@ -17115,7 +17122,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>44958</v>
       </c>
@@ -17141,7 +17148,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>44986</v>
       </c>
@@ -17167,7 +17174,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="15" t="s">
         <v>562</v>
@@ -17189,7 +17196,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>45017</v>
       </c>
@@ -17209,7 +17216,7 @@
       <c r="J644" s="12"/>
       <c r="K644" s="15"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>45047</v>
       </c>
@@ -17229,7 +17236,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>45078</v>
       </c>
@@ -17253,7 +17260,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>45108</v>
       </c>
@@ -17279,7 +17286,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>45139</v>
       </c>
@@ -17299,20 +17306,22 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>45170</v>
       </c>
       <c r="B649" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C649" s="13"/>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="39">
         <v>1</v>
@@ -17323,7 +17332,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>53</v>
@@ -17345,7 +17354,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
         <v>53</v>
@@ -17367,63 +17376,69 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>45200</v>
       </c>
       <c r="B652" s="20"/>
-      <c r="C652" s="13"/>
+      <c r="C652" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G652" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>45231</v>
       </c>
       <c r="B653" s="20"/>
-      <c r="C653" s="13"/>
+      <c r="C653" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D653" s="39"/>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G653" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>45261</v>
       </c>
       <c r="B654" s="20"/>
-      <c r="C654" s="13"/>
+      <c r="C654" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D654" s="39"/>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G654" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40">
-        <v>45292</v>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" s="48" t="s">
+        <v>569</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17439,27 +17454,35 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B656" s="20"/>
-      <c r="C656" s="13"/>
+        <v>45292</v>
+      </c>
+      <c r="B656" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C656" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H656" s="39"/>
+      <c r="G656" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H656" s="39">
+        <v>2</v>
+      </c>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20"/>
-    </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K656" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17475,9 +17498,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17493,9 +17516,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17511,9 +17534,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17529,9 +17552,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17547,9 +17570,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17565,9 +17588,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17583,9 +17606,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17601,9 +17624,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17619,9 +17642,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17637,9 +17660,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17655,9 +17678,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17673,9 +17696,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17691,9 +17714,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17709,9 +17732,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17727,9 +17750,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17745,9 +17768,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17763,9 +17786,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17781,9 +17804,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17799,9 +17822,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17817,9 +17840,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17835,9 +17858,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17853,9 +17876,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17871,9 +17894,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17889,9 +17912,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17907,9 +17930,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17925,9 +17948,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17943,9 +17966,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17961,9 +17984,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17979,9 +18002,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17997,9 +18020,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18015,9 +18038,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18033,9 +18056,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18051,9 +18074,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18069,9 +18092,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18087,9 +18110,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18105,9 +18128,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18123,9 +18146,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18141,9 +18164,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18159,9 +18182,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18177,9 +18200,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18195,9 +18218,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18213,9 +18236,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18231,9 +18254,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18249,9 +18272,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18267,9 +18290,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18285,9 +18308,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18303,9 +18326,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18321,9 +18344,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18339,9 +18362,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18357,9 +18380,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18375,9 +18398,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18393,9 +18416,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18411,9 +18434,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18429,9 +18452,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18447,9 +18470,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18465,9 +18488,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18483,9 +18506,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18501,9 +18524,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18519,9 +18542,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18537,9 +18560,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18555,9 +18578,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18573,9 +18596,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18591,9 +18614,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18609,9 +18632,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18627,9 +18650,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18645,9 +18668,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18663,9 +18686,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18681,9 +18704,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18699,9 +18722,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18717,9 +18740,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18735,9 +18758,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18753,9 +18776,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18771,9 +18794,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18789,9 +18812,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18807,9 +18830,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18825,9 +18848,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -18843,9 +18866,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -18861,9 +18884,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -18879,9 +18902,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -18897,9 +18920,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -18915,9 +18938,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -18933,9 +18956,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -18951,9 +18974,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -18969,9 +18992,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -18987,9 +19010,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19005,9 +19028,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19023,9 +19046,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19041,9 +19064,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19059,9 +19082,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19077,9 +19100,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19095,9 +19118,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19113,9 +19136,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19131,9 +19154,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19149,9 +19172,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19167,9 +19190,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19185,9 +19208,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19203,9 +19226,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19221,9 +19244,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19239,9 +19262,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19257,9 +19280,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19275,9 +19298,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19293,9 +19316,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19311,9 +19334,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19329,9 +19352,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19347,9 +19370,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19365,9 +19388,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19383,9 +19406,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19401,9 +19424,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19419,9 +19442,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19437,9 +19460,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19455,9 +19478,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19473,9 +19496,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19491,9 +19514,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19509,9 +19532,9 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19527,9 +19550,9 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19545,9 +19568,9 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19563,9 +19586,9 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19581,9 +19604,9 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19599,9 +19622,9 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19617,9 +19640,9 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19635,9 +19658,9 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19653,9 +19676,9 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19671,9 +19694,9 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19689,9 +19712,9 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19707,9 +19730,9 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19725,9 +19748,9 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19743,9 +19766,9 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19761,9 +19784,9 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19779,9 +19802,9 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19797,9 +19820,9 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19815,9 +19838,9 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19833,9 +19856,9 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19851,9 +19874,9 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -19869,9 +19892,9 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -19887,9 +19910,9 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -19905,9 +19928,9 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -19923,9 +19946,9 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -19941,9 +19964,9 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -19959,9 +19982,9 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -19977,9 +20000,9 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -19995,9 +20018,9 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20013,9 +20036,9 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20031,9 +20054,9 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20049,9 +20072,9 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20067,9 +20090,9 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20085,9 +20108,9 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20103,9 +20126,9 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20121,9 +20144,9 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20139,9 +20162,9 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20157,9 +20180,9 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20175,9 +20198,9 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20193,9 +20216,9 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20211,9 +20234,9 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="40">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20229,9 +20252,9 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="40">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20247,9 +20270,9 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="40">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20265,9 +20288,9 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="40">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20283,9 +20306,9 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="40">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20301,9 +20324,9 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="40">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20319,9 +20342,9 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="40">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20337,9 +20360,9 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="40">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20355,9 +20378,9 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="40">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20373,9 +20396,9 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="40">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20391,9 +20414,9 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="40">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20409,9 +20432,9 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="40">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20427,9 +20450,9 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="40">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20445,9 +20468,9 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="40">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -20463,9 +20486,9 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="40">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -20481,9 +20504,9 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="40">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -20499,9 +20522,9 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="40">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -20517,9 +20540,9 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="40">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -20535,9 +20558,9 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="40">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -20553,9 +20576,9 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="40">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -20571,9 +20594,9 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="40">
-        <v>50618</v>
+        <v>50587</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -20589,9 +20612,9 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="40">
-        <v>50649</v>
+        <v>50618</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -20607,9 +20630,9 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="40">
-        <v>50679</v>
+        <v>50649</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -20625,9 +20648,9 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="40">
-        <v>50710</v>
+        <v>50679</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -20643,9 +20666,9 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="40">
-        <v>50740</v>
+        <v>50710</v>
       </c>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -20661,9 +20684,9 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="40">
-        <v>50771</v>
+        <v>50740</v>
       </c>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -20679,9 +20702,9 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="40">
-        <v>50802</v>
+        <v>50771</v>
       </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -20697,9 +20720,9 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="40">
-        <v>50830</v>
+        <v>50802</v>
       </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -20715,9 +20738,9 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="40">
-        <v>50861</v>
+        <v>50830</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -20733,9 +20756,9 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="40">
-        <v>50891</v>
+        <v>50861</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -20751,9 +20774,9 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="40">
-        <v>50922</v>
+        <v>50891</v>
       </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -20769,9 +20792,9 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="40">
-        <v>50952</v>
+        <v>50922</v>
       </c>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -20786,6 +20809,24 @@
       <c r="I841" s="9"/>
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A842" s="40">
+        <v>50952</v>
+      </c>
+      <c r="B842" s="20"/>
+      <c r="C842" s="13"/>
+      <c r="D842" s="39"/>
+      <c r="E842" s="9"/>
+      <c r="F842" s="20"/>
+      <c r="G842" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H842" s="39"/>
+      <c r="I842" s="9"/>
+      <c r="J842" s="11"/>
+      <c r="K842" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20803,10 +20844,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20829,28 +20870,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20863,7 +20904,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20892,7 +20933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>30.503</v>
       </c>
@@ -20918,17 +20959,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20949,7 +20990,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20976,7 +21017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21002,7 +21043,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21028,7 +21069,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21054,7 +21095,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21080,7 +21121,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21109,7 +21150,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21135,7 +21176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21161,7 +21202,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21181,7 +21222,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21201,7 +21242,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21221,7 +21262,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21242,7 +21283,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21263,7 +21304,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21284,7 +21325,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21305,7 +21346,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21326,7 +21367,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21347,7 +21388,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21368,7 +21409,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21389,7 +21430,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21410,7 +21451,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21431,7 +21472,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21452,7 +21493,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21473,7 +21514,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21494,7 +21535,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21515,7 +21556,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21536,7 +21577,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21557,7 +21598,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21578,7 +21619,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21599,7 +21640,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21620,7 +21661,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21641,7 +21682,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21650,7 +21691,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21659,7 +21700,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21668,7 +21709,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21677,7 +21718,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21686,7 +21727,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21695,7 +21736,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21704,7 +21745,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21713,7 +21754,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21722,7 +21763,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21731,7 +21772,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21740,7 +21781,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21749,7 +21790,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21758,7 +21799,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21767,7 +21808,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21776,7 +21817,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21785,7 +21826,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21794,7 +21835,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21803,7 +21844,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21812,7 +21853,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21821,7 +21862,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21830,7 +21871,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21839,7 +21880,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21848,7 +21889,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21857,7 +21898,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21866,7 +21907,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21875,7 +21916,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21884,7 +21925,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21893,7 +21934,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21902,7 +21943,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
